--- a/results_new_tree_model.xlsx
+++ b/results_new_tree_model.xlsx
@@ -98,10 +98,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -534,18 +534,13 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>→
 ←</t>
@@ -554,10 +549,10 @@
       <c r="I1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>←
 →</t>
@@ -566,10 +561,10 @@
       <c r="M1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="n">
+      <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -577,7 +572,7 @@
       <c r="Q1" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -588,86 +583,89 @@
       <c r="U1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>→
-←</t>
+      <c r="V1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="W1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="X1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="Y1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="AD1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="AE1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="4" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="4" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>↓↑</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
+      <c r="AE2" s="4" t="inlineStr">
         <is>
           <t>↓↑</t>
         </is>
@@ -677,9 +675,9 @@
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="3" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH2" s="4" t="inlineStr">
+        <is>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
@@ -690,7 +688,7 @@
       <c r="C3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -698,7 +696,7 @@
       <c r="E3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -706,12 +704,12 @@
       <c r="G3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="K3" s="1" t="n">
@@ -720,31 +718,26 @@
       <c r="M3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="n">
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="n">
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n">
         <v>24</v>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
       </c>
       <c r="S3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="3" t="n">
         <v>26</v>
       </c>
       <c r="W3" s="1" t="n">
@@ -753,13 +746,18 @@
       <c r="Y3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="3" t="n">
         <v>29</v>
+      </c>
+      <c r="AB3" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="AC3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="3" t="n">
         <v>31</v>
       </c>
       <c r="AG3" s="8" t="inlineStr">
@@ -767,39 +765,49 @@
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="3" t="inlineStr">
-        <is>
-          <t>4 → 9</t>
+      <c r="AH3" s="4" t="inlineStr">
+        <is>
+          <t>1 → 6</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>↓↑</t>
         </is>
       </c>
-      <c r="AC4" s="3" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
@@ -809,9 +817,9 @@
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="3" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH4" s="4" t="inlineStr">
+        <is>
+          <t>4 → 7</t>
         </is>
       </c>
     </row>
@@ -819,30 +827,35 @@
       <c r="A5" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="I5" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="n">
         <v>37</v>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
       </c>
       <c r="M5" s="1" t="n">
         <v>38</v>
@@ -850,7 +863,7 @@
       <c r="O5" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -858,18 +871,18 @@
       <c r="Q5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="n">
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -877,10 +890,10 @@
       <c r="W5" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -888,142 +901,138 @@
       <c r="AA5" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AD5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="1" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>↓↑</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>↓↑</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>↓↑</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>↑↓</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>49</v>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="E7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="n">
         <v>52</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>←
 →</t>
         </is>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="n">
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="n">
         <v>60</v>
       </c>
       <c r="AA7" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="3" t="inlineStr">
+      <c r="AC7" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>←
 →</t>
         </is>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>62</v>
       </c>
       <c r="AE7" s="2" t="n">
         <v>63</v>
@@ -1089,88 +1098,83 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>←
+→</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>→
 ←</t>
         </is>
       </c>
-      <c r="I1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q1" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="X1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="Y1" s="2" t="n">
         <v>12</v>
       </c>
       <c r="AA1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -1178,59 +1182,69 @@
       <c r="AC1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="AD1" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="AE1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="4" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="4" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>↑↓</t>
         </is>
       </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
       <c r="AG2" s="7" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="3" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH2" s="4" t="inlineStr">
+        <is>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
@@ -1238,15 +1252,10 @@
       <c r="A3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="C3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>←
 →</t>
@@ -1258,17 +1267,18 @@
       <c r="G3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>→
+←</t>
         </is>
       </c>
       <c r="K3" s="1" t="n">
@@ -1277,28 +1287,32 @@
       <c r="M3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="n">
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="2" t="n">
         <v>24</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="n">
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="n">
         <v>26</v>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
       </c>
       <c r="W3" s="1" t="n">
         <v>27</v>
@@ -1306,24 +1320,29 @@
       <c r="Y3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="Z3" s="3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="4" t="inlineStr">
         <is>
           <t>←
 →</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="AC3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AD3" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE3" s="3" t="n">
         <v>31</v>
       </c>
       <c r="AG3" s="8" t="inlineStr">
@@ -1331,49 +1350,19 @@
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="3" t="inlineStr">
-        <is>
-          <t>4 → 9</t>
+      <c r="AH3" s="4" t="inlineStr">
+        <is>
+          <t>1 → 6</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1383,9 +1372,9 @@
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="3" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH4" s="4" t="inlineStr">
+        <is>
+          <t>4 → 7</t>
         </is>
       </c>
     </row>
@@ -1393,25 +1382,41 @@
       <c r="A5" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>←
+→</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>34</v>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
       </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="I5" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="3" t="n">
         <v>37</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="M5" s="1" t="n">
         <v>38</v>
@@ -1419,38 +1424,32 @@
       <c r="O5" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="n">
         <v>42</v>
-      </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
       </c>
       <c r="W5" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -1458,80 +1457,85 @@
       <c r="AA5" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="AB5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AC5" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="1" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>49</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -1543,74 +1547,75 @@
       <c r="I7" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="K7" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="n">
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="n">
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="n">
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="Z7" s="4" t="inlineStr">
+        <is>
+          <t>→
+←</t>
         </is>
       </c>
       <c r="AA7" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AB7" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC7" s="2" t="n">
         <v>62</v>
       </c>
       <c r="AE7" s="2" t="n">

--- a/results_new_tree_model.xlsx
+++ b/results_new_tree_model.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC0CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,15 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -110,13 +114,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,143 +550,141 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="n">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="n">
+      <c r="M1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q1" s="5" t="n">
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S1" s="6" t="n">
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="X1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="n">
+      <c r="AE1" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="inlineStr">
-        <is>
-          <t>↓↑</t>
-        </is>
-      </c>
-      <c r="AE2" s="4" t="inlineStr">
-        <is>
-          <t>↓↑</t>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="AG2" s="7" t="inlineStr">
@@ -675,9 +692,9 @@
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="4" t="inlineStr">
-        <is>
-          <t>4 → 6</t>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
@@ -685,356 +702,428 @@
       <c r="A3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="n">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q3" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S3" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AB3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AD3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE3" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="8" t="inlineStr">
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="4" t="inlineStr">
-        <is>
-          <t>1 → 6</t>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>0 → 5</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>↓↑</t>
-        </is>
-      </c>
-      <c r="AA4" s="4" t="inlineStr">
-        <is>
-          <t>↓↑</t>
-        </is>
-      </c>
-      <c r="AE4" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG4" s="9" t="inlineStr">
+      <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="4" t="inlineStr">
-        <is>
-          <t>4 → 7</t>
+      <c r="AH4" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="n">
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S5" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="n">
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="n">
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W5" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="X5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y5" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="AB5" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC5" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE5" s="5" t="n">
         <v>47</v>
+      </c>
+      <c r="AG5" s="11" t="inlineStr">
+        <is>
+          <t>car 3</t>
+        </is>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
+        <is>
+          <t>1 → 7</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>↓↑</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>↓↑</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="AE6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA6" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
+      <c r="AG6" s="12" t="inlineStr">
+        <is>
+          <t>dummy car</t>
+        </is>
+      </c>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
       </c>
       <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
-      <c r="M7" s="1" t="n">
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M7" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="n">
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O7" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S7" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="U7" s="3" t="n">
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U7" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W7" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y7" s="3" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y7" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA7" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC7" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AD7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE7" s="8" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1098,153 +1187,156 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="n">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="n">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="n">
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q1" s="6" t="n">
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="n">
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="X1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="n">
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="n">
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>↑↓</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="AE2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AA2" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="AG2" s="7" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="4" t="inlineStr">
-        <is>
-          <t>4 → 6</t>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
@@ -1252,373 +1344,423 @@
       <c r="A3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="n">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q3" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S3" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U3" s="3" t="n">
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W3" s="1" t="n">
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA3" s="3" t="n">
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AB3" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AD3" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AD3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE3" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="8" t="inlineStr">
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="4" t="inlineStr">
-        <is>
-          <t>1 → 6</t>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>0 → 5</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="S4" s="4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AE4" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG4" s="9" t="inlineStr">
+      <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="4" t="inlineStr">
-        <is>
-          <t>4 → 7</t>
+      <c r="AH4" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>←
-→</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="n">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="n">
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S5" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="n">
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W5" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="X5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y5" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA5" s="2" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA5" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE5" s="5" t="n">
         <v>47</v>
+      </c>
+      <c r="AG5" s="11" t="inlineStr">
+        <is>
+          <t>car 3</t>
+        </is>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
+        <is>
+          <t>1 → 7</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="AE6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC6" s="4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE6" s="4" t="inlineStr">
-        <is>
-          <t>↑</t>
+      <c r="AG6" s="12" t="inlineStr">
+        <is>
+          <t>dummy car</t>
+        </is>
+      </c>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
       </c>
       <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M7" s="1" t="n">
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M7" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O7" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="n">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S7" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U7" s="3" t="n">
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U7" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="n">
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W7" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y7" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>→
-←</t>
-        </is>
-      </c>
-      <c r="AA7" s="1" t="n">
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA7" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC7" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AD7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE7" s="8" t="n">
         <v>63</v>
       </c>
     </row>
